--- a/schedule_finale.xlsx
+++ b/schedule_finale.xlsx
@@ -655,7 +655,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Generated: 2026-01-20 11:57</t>
+          <t>Generated: 2026-01-20 12:27</t>
         </is>
       </c>
     </row>
